--- a/data/trans_orig/IQ11_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ11_1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42336569-0D72-47C5-8B7A-82EB4B51E339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9DDF818-0A7E-4412-BC48-F0EE375C14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{398747A2-1F9A-42BA-8F36-07269B77278A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F639C8F8-2B30-4814-8AFA-1E2FCE95E26F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="347">
   <si>
     <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
   </si>
@@ -89,13 +89,13 @@
     <t>16,38%</t>
   </si>
   <si>
-    <t>68,7%</t>
+    <t>70,62%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>40,35%</t>
+    <t>40,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>83,62%</t>
   </si>
   <si>
-    <t>31,3%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>59,65%</t>
+    <t>59,47%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -134,61 +134,61 @@
     <t>3,44%</t>
   </si>
   <si>
-    <t>10,49%</t>
+    <t>12,35%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>12,1%</t>
+    <t>16,03%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>87,9%</t>
+    <t>83,97%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,7 +197,7 @@
     <t>9,76%</t>
   </si>
   <si>
-    <t>48,55%</t>
+    <t>45,55%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -206,7 +206,7 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>16,94%</t>
+    <t>21,25%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -215,19 +215,19 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>38,63%</t>
+    <t>47,68%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>19,8%</t>
+    <t>19,02%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>50,05%</t>
+    <t>43,71%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -236,13 +236,13 @@
     <t>92,09%</t>
   </si>
   <si>
-    <t>75,79%</t>
+    <t>76,57%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>7,14%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -251,7 +251,7 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -263,451 +263,457 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>9,24%</t>
+    <t>8,25%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>5,4%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2015 (Tasa respuesta: 4,37%)</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2016 (Tasa respuesta: 4,37%)</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -725,205 +731,199 @@
     <t>3,74%</t>
   </si>
   <si>
-    <t>19,68%</t>
+    <t>17,18%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,69%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>18,53%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>81,65%</t>
+    <t>82,39%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
@@ -953,52 +953,49 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>35,65%</t>
+    <t>27,88%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>12,68%</t>
+    <t>12,47%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>31,7%</t>
+    <t>28,02%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>33,64%</t>
+    <t>30,13%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>25,25%</t>
+    <t>23,15%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>68,3%</t>
+    <t>71,98%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>57,77%</t>
+    <t>60,7%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -1007,25 +1004,25 @@
     <t>26,6%</t>
   </si>
   <si>
-    <t>70,35%</t>
+    <t>69,27%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>49,96%</t>
+    <t>49,55%</t>
   </si>
   <si>
     <t>73,4%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>30,73%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>50,04%</t>
+    <t>50,45%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -1037,10 +1034,10 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>12,8%</t>
@@ -1049,28 +1046,22 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>32,5%</t>
+    <t>31,65%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>22,55%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>67,5%</t>
+    <t>68,35%</t>
   </si>
   <si>
     <t>97,4%</t>
@@ -1079,16 +1070,16 @@
     <t>91,82%</t>
   </si>
   <si>
-    <t>75,48%</t>
+    <t>75,14%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A43622-3FD0-45A9-9946-8FA4A777E11C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C863FB-DD27-4120-8B7F-52865299C465}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2863,7 +2854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E09BB9-5067-4CD1-BEA5-25DBB9FBC62A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6C6DE5-CF03-4F42-9EE6-86BCD56E4E91}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3397,13 +3388,13 @@
         <v>5054</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3412,13 +3403,13 @@
         <v>1499</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -3430,10 +3421,10 @@
         <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3439,13 @@
         <v>4052</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3463,13 +3454,13 @@
         <v>6378</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3478,13 +3469,13 @@
         <v>10430</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3490,13 @@
         <v>28595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -3514,13 +3505,13 @@
         <v>23226</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -3529,13 +3520,13 @@
         <v>51821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,7 +3600,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3624,7 +3615,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3639,7 +3630,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3675,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3690,7 +3681,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3696,13 @@
         <v>1363</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -3720,13 +3711,13 @@
         <v>1462</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -3735,13 +3726,13 @@
         <v>2824</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3747,13 @@
         <v>648</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3771,13 +3762,13 @@
         <v>769</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3786,13 +3777,13 @@
         <v>1416</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3798,13 @@
         <v>12481</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3822,13 +3813,13 @@
         <v>6784</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -3837,13 +3828,13 @@
         <v>19265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3902,13 @@
         <v>641</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3926,13 +3917,13 @@
         <v>1302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3941,13 +3932,13 @@
         <v>1943</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3953,13 @@
         <v>674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3977,13 +3968,13 @@
         <v>1452</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3992,13 +3983,13 @@
         <v>2126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4004,13 @@
         <v>7544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4028,13 +4019,13 @@
         <v>4226</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -4043,13 +4034,13 @@
         <v>11770</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4055,13 @@
         <v>5456</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4079,13 +4070,13 @@
         <v>7802</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -4094,13 +4085,13 @@
         <v>13259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4106,13 @@
         <v>50463</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -4130,13 +4121,13 @@
         <v>32141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -4145,13 +4136,13 @@
         <v>82603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,7 +4217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE068C9-8920-42B5-8BD1-C22C4991D3FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E346A77-8BD7-4797-8CB0-42FD4A9CFC05}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4243,7 +4234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4386,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,7 +4479,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,7 +4530,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,7 +4578,7 @@
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4664,7 +4655,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4679,7 +4670,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4694,7 +4685,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4706,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4724,13 +4715,13 @@
         <v>617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4739,13 +4730,13 @@
         <v>617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,7 +4757,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4781,7 +4772,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4796,7 +4787,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4802,13 @@
         <v>2762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4826,13 +4817,13 @@
         <v>601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4841,13 +4832,13 @@
         <v>3363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4853,13 @@
         <v>27366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4877,10 +4868,10 @@
         <v>15282</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4892,13 +4883,13 @@
         <v>42648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,7 +4978,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5002,7 +4993,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,28 +5008,28 @@
         <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5047,13 +5038,13 @@
         <v>700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5059,13 @@
         <v>713</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5089,7 +5080,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -5098,13 +5089,13 @@
         <v>713</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5110,13 @@
         <v>633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5140,7 +5131,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5149,13 +5140,13 @@
         <v>634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5161,13 @@
         <v>4759</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5188,7 +5179,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -5200,13 +5191,13 @@
         <v>9171</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,7 +5271,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5295,7 +5286,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5310,7 +5301,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5316,13 @@
         <v>700</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5340,13 +5331,13 @@
         <v>617</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5355,13 +5346,13 @@
         <v>1317</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5367,13 @@
         <v>1426</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5397,7 +5388,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5406,13 +5397,13 @@
         <v>1426</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,10 +5418,10 @@
         <v>3396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>282</v>
@@ -5589,7 +5580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EBC4D6-4996-4803-8BD6-43997ADF77DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B072E4E-B16D-4D41-ABAE-6D9FC0CBA205}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6042,7 +6033,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6057,7 +6048,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,7 +6084,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6108,7 +6099,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,10 +6249,10 @@
         <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,7 +6326,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6350,7 +6341,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6386,7 +6377,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6401,7 +6392,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6437,7 +6428,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6452,7 +6443,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6482,14 +6473,14 @@
         <v>1968</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
@@ -6503,7 +6494,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6512,13 +6503,13 @@
         <v>1968</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,10 +6524,10 @@
         <v>5431</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -6551,7 +6542,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -6563,10 +6554,10 @@
         <v>10539</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -6643,7 +6634,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6658,22 +6649,22 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,7 +6685,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6709,22 +6700,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,7 +6736,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6754,13 +6745,13 @@
         <v>607</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6775,7 +6766,7 @@
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6781,13 @@
         <v>2869</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6805,13 +6796,13 @@
         <v>800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6820,13 +6811,13 @@
         <v>3669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6832,13 @@
         <v>19541</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -6856,10 +6847,10 @@
         <v>15794</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -6871,13 +6862,13 @@
         <v>35335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IQ11_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ11_1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9DDF818-0A7E-4412-BC48-F0EE375C14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02CC45D-AEA4-4792-BA3C-2BC29D7238AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F639C8F8-2B30-4814-8AFA-1E2FCE95E26F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5DA2D308-351E-4642-9EE9-E9658A557B45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="350">
   <si>
     <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -77,25 +77,31 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>17,08%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>70,62%</t>
+    <t>65,37%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>40,53%</t>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,922 +113,916 @@
     <t>100%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>59,47%</t>
+    <t>59,85%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
     <t>2,31%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>12,35%</t>
+    <t>10,75%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>7,53%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2016 (Tasa respuesta: 4,37%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2016 (Tasa respuesta: 4,37%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>11,12%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -1031,55 +1031,64 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C863FB-DD27-4120-8B7F-52865299C465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A23C9E-9B54-41BA-AC67-1F257A5E1C30}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1762,34 +1771,34 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -1813,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>2839</v>
+        <v>3440</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -1828,19 +1837,19 @@
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>3440</v>
+        <v>2839</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -1855,7 +1864,7 @@
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,34 +1873,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4114</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>2839</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4114</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1900,13 +1909,13 @@
         <v>6954</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,34 +2028,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>1178</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2070,31 +2079,31 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2858</v>
+        <v>537</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2858</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>537</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>38</v>
@@ -2121,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>30202</v>
+        <v>19196</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>42</v>
@@ -2133,22 +2142,22 @@
         <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>46</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30202</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="7">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19196</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -2172,34 +2181,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7">
+        <v>19733</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>52</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>34237</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>30</v>
-      </c>
-      <c r="I15" s="7">
-        <v>19733</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>82</v>
@@ -2208,13 +2217,13 @@
         <v>53970</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,31 +2234,31 @@
         <v>5</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>660</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
@@ -2288,23 +2297,23 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,23 +2348,23 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,34 +2387,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>614</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2414,13 +2423,13 @@
         <v>614</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,31 +2438,31 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9351</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="7">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>5490</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>14</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9351</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -2465,13 +2474,13 @@
         <v>14841</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,34 +2489,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="7">
+        <v>9351</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7">
         <v>6764</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9351</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -2516,13 +2525,13 @@
         <v>16115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,34 +2542,34 @@
         <v>5</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>660</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2569,13 +2578,13 @@
         <v>660</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,37 +2605,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,34 +2644,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>1178</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2671,13 +2680,13 @@
         <v>1178</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,34 +2695,34 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1211</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3472</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1211</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2722,13 +2731,13 @@
         <v>4682</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,34 +2746,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7">
+        <v>31987</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="7">
         <v>58</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>38531</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="7">
-        <v>48</v>
-      </c>
-      <c r="I26" s="7">
-        <v>31987</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -2773,13 +2782,13 @@
         <v>70519</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,34 +2797,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>50</v>
+      </c>
+      <c r="D27" s="7">
+        <v>33198</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>66</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>43841</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="7">
-        <v>50</v>
-      </c>
-      <c r="I27" s="7">
-        <v>33198</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27" s="7">
         <v>116</v>
@@ -2824,18 +2833,18 @@
         <v>77039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2854,7 +2863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6C6DE5-CF03-4F42-9EE6-86BCD56E4E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6419DEA-D9CD-4A91-88FF-650C4EDD2EC3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2871,7 +2880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2972,34 +2981,34 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>641</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3008,13 +3017,13 @@
         <v>641</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,37 +3044,37 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,31 +3086,31 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1127</v>
+        <v>1265</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1265</v>
+        <v>1127</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -3110,13 +3119,13 @@
         <v>2392</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,31 +3137,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>756</v>
+        <v>656</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3161,13 +3170,13 @@
         <v>1412</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,34 +3185,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2132</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="7">
         <v>12</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>9387</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2132</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -3212,13 +3221,13 @@
         <v>11518</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,34 +3236,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4053</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>16</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>11911</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4053</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -3263,13 +3272,13 @@
         <v>15963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,34 +3289,34 @@
         <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1302</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3316,13 +3325,13 @@
         <v>1302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,34 +3340,34 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1452</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>674</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1452</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3367,13 +3376,13 @@
         <v>2126</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,34 +3391,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1499</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5054</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1499</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -3418,13 +3427,13 @@
         <v>6554</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,34 +3442,34 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6378</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4052</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6378</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3469,13 +3478,13 @@
         <v>10430</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,34 +3493,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23226</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="7">
         <v>42</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>28595</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="7">
-        <v>34</v>
-      </c>
-      <c r="I14" s="7">
-        <v>23226</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -3520,13 +3529,13 @@
         <v>51821</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,34 +3544,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7">
+        <v>33857</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>56</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>38376</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>49</v>
-      </c>
-      <c r="I15" s="7">
-        <v>33857</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>105</v>
@@ -3571,13 +3580,13 @@
         <v>72233</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,37 +3609,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,37 +3660,37 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,31 +3702,31 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1363</v>
+        <v>1462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>1462</v>
+        <v>1363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -3726,13 +3735,13 @@
         <v>2824</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,31 +3753,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>648</v>
+        <v>769</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>769</v>
+        <v>648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3777,13 +3786,13 @@
         <v>1416</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,34 +3801,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6784</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="7">
         <v>18</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>12481</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6784</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -3828,13 +3837,13 @@
         <v>19265</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,34 +3852,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9014</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7">
         <v>21</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>14492</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>13</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9014</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -3879,13 +3888,13 @@
         <v>23506</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,34 +3905,34 @@
         <v>5</v>
       </c>
       <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1302</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>641</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1302</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3932,13 +3941,13 @@
         <v>1943</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,34 +3956,34 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1452</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>674</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1452</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3983,13 +3992,13 @@
         <v>2126</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,34 +4007,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
+        <v>4226</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="7">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7">
         <v>7544</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4226</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -4034,13 +4043,13 @@
         <v>11770</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,34 +4058,34 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7802</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="7">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5456</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H25" s="7">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7802</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -4085,13 +4094,13 @@
         <v>13259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,34 +4109,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>47</v>
+      </c>
+      <c r="D26" s="7">
+        <v>32141</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="7">
         <v>72</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>50463</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H26" s="7">
-        <v>47</v>
-      </c>
-      <c r="I26" s="7">
-        <v>32141</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -4136,13 +4145,13 @@
         <v>82603</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,34 +4160,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>68</v>
+      </c>
+      <c r="D27" s="7">
+        <v>46923</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>93</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>64778</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="7">
-        <v>68</v>
-      </c>
-      <c r="I27" s="7">
-        <v>46923</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27" s="7">
         <v>161</v>
@@ -4187,18 +4196,18 @@
         <v>111701</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4217,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E346A77-8BD7-4797-8CB0-42FD4A9CFC05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6001C6F-6CA4-4896-ADA2-14018E46DEFB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4234,7 +4243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4347,7 +4356,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4362,7 +4371,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4377,7 +4386,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,7 +4407,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4413,7 +4422,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4428,7 +4437,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,7 +4458,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4464,7 +4473,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4479,7 +4488,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,7 +4509,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4515,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4530,7 +4539,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,31 +4551,31 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>2529</v>
+        <v>2457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2457</v>
+        <v>2529</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4575,13 +4584,13 @@
         <v>4986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,31 +4602,31 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>2529</v>
+        <v>2457</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>2457</v>
+        <v>2529</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4626,13 +4635,13 @@
         <v>4986</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,23 +4664,23 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
@@ -4685,7 +4694,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,34 +4703,34 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>617</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4730,13 +4739,13 @@
         <v>617</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,34 +4754,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>713</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4787,7 +4796,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,34 +4805,34 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>601</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2762</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>601</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4832,13 +4841,13 @@
         <v>3363</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,34 +4856,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7">
+        <v>15282</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>38</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>27366</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H14" s="7">
-        <v>23</v>
-      </c>
-      <c r="I14" s="7">
-        <v>15282</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -4883,13 +4892,13 @@
         <v>42648</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,34 +4907,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16500</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>43</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>30841</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>25</v>
-      </c>
-      <c r="I15" s="7">
-        <v>16500</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>68</v>
@@ -4934,13 +4943,13 @@
         <v>47341</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,37 +4972,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,34 +5011,34 @@
         <v>4</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>700</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5038,13 +5047,13 @@
         <v>700</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,34 +5062,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>713</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -5089,13 +5098,13 @@
         <v>713</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,34 +5113,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>633</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5140,13 +5149,13 @@
         <v>634</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,31 +5167,31 @@
         <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>4759</v>
+        <v>4412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>4412</v>
+        <v>4759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -5191,13 +5200,13 @@
         <v>9171</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,34 +5215,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7">
+        <v>4412</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7">
         <v>6805</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7">
-        <v>4412</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -5242,13 +5251,13 @@
         <v>11218</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,37 +5280,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,25 +5322,25 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>700</v>
+        <v>617</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
@@ -5361,34 +5370,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>1426</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5397,13 +5406,13 @@
         <v>1426</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,34 +5421,34 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>3396</v>
+        <v>601</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>282</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>601</v>
+        <v>3396</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5451,7 +5460,7 @@
         <v>39</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>286</v>
@@ -5463,10 +5472,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7">
-        <v>34654</v>
+        <v>22151</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>287</v>
@@ -5475,22 +5484,22 @@
         <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="7">
+        <v>49</v>
+      </c>
+      <c r="I26" s="7">
+        <v>34654</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H26" s="7">
-        <v>34</v>
-      </c>
-      <c r="I26" s="7">
-        <v>22151</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M26" s="7">
         <v>83</v>
@@ -5514,34 +5523,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>36</v>
+      </c>
+      <c r="D27" s="7">
+        <v>23369</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>57</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>40176</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="7">
-        <v>36</v>
-      </c>
-      <c r="I27" s="7">
-        <v>23369</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27" s="7">
         <v>93</v>
@@ -5550,18 +5559,18 @@
         <v>63545</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5580,7 +5589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B072E4E-B16D-4D41-ABAE-6D9FC0CBA205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048BC96D-C5D1-4F5E-AE32-F9E3265EDA2E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5902,49 +5911,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1036</v>
+        <v>1082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1350</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1080</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>2116</v>
+        <v>2432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,49 +5962,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1082</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>1036</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
       <c r="I9" s="7">
-        <v>1080</v>
+        <v>1350</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>2116</v>
+        <v>2432</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,23 +6027,23 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
@@ -6048,7 +6057,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,23 +6078,23 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,40 +6117,40 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>607</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>305</v>
@@ -6162,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>901</v>
+        <v>761</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>307</v>
@@ -6177,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>800</v>
+        <v>961</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>309</v>
@@ -6192,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1701</v>
+        <v>1722</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>311</v>
@@ -6210,10 +6219,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>13073</v>
+        <v>9590</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>313</v>
@@ -6222,13 +6231,13 @@
         <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>9607</v>
+        <v>13785</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>315</v>
@@ -6237,22 +6246,22 @@
         <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
       </c>
       <c r="N14" s="7">
-        <v>22681</v>
+        <v>23375</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,49 +6270,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11019</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>19</v>
       </c>
-      <c r="D15" s="7">
-        <v>13974</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>17</v>
-      </c>
       <c r="I15" s="7">
-        <v>11014</v>
+        <v>14746</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>36</v>
       </c>
       <c r="N15" s="7">
-        <v>24989</v>
+        <v>25765</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,23 +6335,23 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
@@ -6356,7 +6365,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,23 +6386,23 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
@@ -6407,7 +6416,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,23 +6437,23 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
@@ -6458,7 +6467,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,40 +6476,40 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
-        <v>1968</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>2102</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1968</v>
+        <v>2102</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>322</v>
@@ -6521,28 +6530,28 @@
         <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>5431</v>
+        <v>5051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>5107</v>
+        <v>5835</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -6551,7 +6560,7 @@
         <v>14</v>
       </c>
       <c r="N20" s="7">
-        <v>10539</v>
+        <v>10886</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>326</v>
@@ -6560,7 +6569,7 @@
         <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,49 +6578,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5051</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7">
         <v>9</v>
       </c>
-      <c r="D21" s="7">
-        <v>7399</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>7</v>
-      </c>
       <c r="I21" s="7">
-        <v>5107</v>
+        <v>7937</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>12507</v>
+        <v>12988</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,7 +6643,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6649,7 +6658,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6685,7 +6694,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6700,7 +6709,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6724,49 +6733,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,49 +6784,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>2869</v>
+        <v>761</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>335</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>800</v>
+        <v>3063</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>3669</v>
+        <v>3824</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,49 +6835,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7">
+        <v>15722</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="7">
         <v>26</v>
       </c>
-      <c r="D26" s="7">
-        <v>19541</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H26" s="7">
-        <v>24</v>
-      </c>
       <c r="I26" s="7">
-        <v>15794</v>
+        <v>20971</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
       </c>
       <c r="N26" s="7">
-        <v>35335</v>
+        <v>36693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,54 +6886,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7">
+        <v>17151</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>29</v>
       </c>
-      <c r="D27" s="7">
-        <v>22410</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="7">
-        <v>26</v>
-      </c>
       <c r="I27" s="7">
-        <v>17201</v>
+        <v>24034</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
       </c>
       <c r="N27" s="7">
-        <v>39611</v>
+        <v>41185</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
